--- a/protected/data/master/stock.xlsx
+++ b/protected/data/master/stock.xlsx
@@ -15,8 +15,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2001-xxx PN 20000001
+2003-xxx PN 20000003
+1001-xxx PN 10000001</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>serial_number</t>
   </si>
@@ -60,33 +96,6 @@
     <t>2003-010</t>
   </si>
   <si>
-    <t>2003-011</t>
-  </si>
-  <si>
-    <t>2003-012</t>
-  </si>
-  <si>
-    <t>2003-013</t>
-  </si>
-  <si>
-    <t>2003-014</t>
-  </si>
-  <si>
-    <t>2003-015</t>
-  </si>
-  <si>
-    <t>2003-016</t>
-  </si>
-  <si>
-    <t>2003-017</t>
-  </si>
-  <si>
-    <t>2003-018</t>
-  </si>
-  <si>
-    <t>2003-019</t>
-  </si>
-  <si>
     <t>1001-001</t>
   </si>
   <si>
@@ -166,13 +175,70 @@
   </si>
   <si>
     <t>use_sublocation</t>
+  </si>
+  <si>
+    <t>1001-007</t>
+  </si>
+  <si>
+    <t>1001-008</t>
+  </si>
+  <si>
+    <t>1001-009</t>
+  </si>
+  <si>
+    <t>1001-010</t>
+  </si>
+  <si>
+    <t>2001-001</t>
+  </si>
+  <si>
+    <t>2001-002</t>
+  </si>
+  <si>
+    <t>2001-003</t>
+  </si>
+  <si>
+    <t>2001-004</t>
+  </si>
+  <si>
+    <t>2001-005</t>
+  </si>
+  <si>
+    <t>2001-006</t>
+  </si>
+  <si>
+    <t>2001-007</t>
+  </si>
+  <si>
+    <t>2001-008</t>
+  </si>
+  <si>
+    <t>2001-009</t>
+  </si>
+  <si>
+    <t>2001-010</t>
+  </si>
+  <si>
+    <t>2001-011</t>
+  </si>
+  <si>
+    <t>2001-012</t>
+  </si>
+  <si>
+    <t>2001-013</t>
+  </si>
+  <si>
+    <t>2001-014</t>
+  </si>
+  <si>
+    <t>2001-015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +373,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -996,8 +1075,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1025,97 +1104,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1123,13 +1202,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1137,13 +1216,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1151,13 +1230,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1165,13 +1244,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1179,13 +1258,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -1193,13 +1272,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1207,13 +1286,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1221,13 +1300,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1235,7 +1314,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1244,12 +1323,12 @@
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1258,12 +1337,12 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1277,7 +1356,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1291,7 +1370,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1305,13 +1384,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1319,13 +1398,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1333,13 +1412,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1347,13 +1426,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1361,21 +1440,162 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1394,13 +1614,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1447,21 +1667,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1475,7 +1695,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1489,7 +1709,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1503,7 +1723,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1517,7 +1737,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1531,7 +1751,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1545,7 +1765,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1559,7 +1779,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1573,7 +1793,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1587,7 +1807,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1601,7 +1821,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
